--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/66_JsonColumnFiltering.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/66_JsonColumnFiltering.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders Filtered" sheetId="1" r:id="R1111c1d6a3ae41f1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders Filtered" sheetId="1" r:id="R5cc2e2aec9124ecd"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/66_JsonColumnFiltering.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/66_JsonColumnFiltering.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders Filtered" sheetId="1" r:id="R5cc2e2aec9124ecd"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders Filtered" sheetId="1" r:id="R829288a7a54f455b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/66_JsonColumnFiltering.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/66_JsonColumnFiltering.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders Filtered" sheetId="1" r:id="R829288a7a54f455b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders Filtered" sheetId="1" r:id="R81be4a8bebca46b6"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/66_JsonColumnFiltering.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/66_JsonColumnFiltering.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders Filtered" sheetId="1" r:id="R81be4a8bebca46b6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders Filtered" sheetId="1" r:id="R0b8844f6a5fc4982"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/66_JsonColumnFiltering.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/66_JsonColumnFiltering.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders Filtered" sheetId="1" r:id="R0b8844f6a5fc4982"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders Filtered" sheetId="1" r:id="Re768b864b7814f51"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/66_JsonColumnFiltering.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/66_JsonColumnFiltering.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders Filtered" sheetId="1" r:id="Re768b864b7814f51"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders Filtered" sheetId="1" r:id="R3dee423a0ce444c3"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/66_JsonColumnFiltering.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/66_JsonColumnFiltering.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders Filtered" sheetId="1" r:id="R3dee423a0ce444c3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders Filtered" sheetId="1" r:id="Re0c950758e044ec3"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/66_JsonColumnFiltering.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/66_JsonColumnFiltering.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders Filtered" sheetId="1" r:id="Re0c950758e044ec3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders Filtered" sheetId="1" r:id="Rf10a0d6c79dc472e"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/66_JsonColumnFiltering.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/66_JsonColumnFiltering.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders Filtered" sheetId="1" r:id="Rf10a0d6c79dc472e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders Filtered" sheetId="1" r:id="Ra3d647fb26994d30"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/66_JsonColumnFiltering.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/66_JsonColumnFiltering.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders Filtered" sheetId="1" r:id="Ra3d647fb26994d30"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders Filtered" sheetId="1" r:id="R9708975bbbc84626"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/66_JsonColumnFiltering.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/66_JsonColumnFiltering.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders Filtered" sheetId="1" r:id="R9708975bbbc84626"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders Filtered" sheetId="1" r:id="Ref62a558541c4c89"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/66_JsonColumnFiltering.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/66_JsonColumnFiltering.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders Filtered" sheetId="1" r:id="Ref62a558541c4c89"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders Filtered" sheetId="1" r:id="Rffb035244e5c4d15"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/66_JsonColumnFiltering.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/66_JsonColumnFiltering.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders Filtered" sheetId="1" r:id="Rffb035244e5c4d15"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders Filtered" sheetId="1" r:id="Rff4100aa2a54444c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/66_JsonColumnFiltering.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/66_JsonColumnFiltering.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders Filtered" sheetId="1" r:id="Rff4100aa2a54444c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders Filtered" sheetId="1" r:id="R371edf7048cf4d49"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/66_JsonColumnFiltering.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/66_JsonColumnFiltering.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders Filtered" sheetId="1" r:id="R371edf7048cf4d49"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders Filtered" sheetId="1" r:id="R514e0535f1994bf9"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/66_JsonColumnFiltering.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/66_JsonColumnFiltering.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders Filtered" sheetId="1" r:id="R514e0535f1994bf9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders Filtered" sheetId="1" r:id="Red97ad73fe1142bb"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/66_JsonColumnFiltering.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/66_JsonColumnFiltering.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders Filtered" sheetId="1" r:id="Red97ad73fe1142bb"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders Filtered" sheetId="1" r:id="R27e33700e8864e7a"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/66_JsonColumnFiltering.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/66_JsonColumnFiltering.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders Filtered" sheetId="1" r:id="R27e33700e8864e7a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders Filtered" sheetId="1" r:id="R5b346fdc74b94c9d"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
